--- a/projects/unit-projects/project-2/PROJECT_2_RUBRIC_ERIC.xlsx
+++ b/projects/unit-projects/project-2/PROJECT_2_RUBRIC_ERIC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Read in your dataset, determine how many sample are present, and ID any missing data</t>
   </si>
@@ -937,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F102"/>
+  <dimension ref="A2:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1361,97 +1361,63 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="5" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="5"/>
+      <c r="A82" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="45">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" s="5" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="5"/>
-    </row>
-    <row r="86" spans="1:1" ht="30">
+      <c r="A85" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="30">
-      <c r="A87" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="5"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="5"/>
+      <c r="A88" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A89" s="5"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="11" t="s">
-        <v>59</v>
+      <c r="A90" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="5"/>
+      <c r="A91" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" spans="1:1" ht="30">
       <c r="A93" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="5"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="5"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="5"/>
-    </row>
-    <row r="101" spans="1:1" ht="30">
-      <c r="A101" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1459,7 +1425,7 @@
   <hyperlinks>
     <hyperlink ref="A37" r:id="rId1" location="Question-7.-What-do-this-plots-show?"/>
     <hyperlink ref="A49" r:id="rId2" location="Question-12.-What-did-you-find?" display="Question 12. What did you find?¶"/>
-    <hyperlink ref="A90" r:id="rId3" location="L33"/>
+    <hyperlink ref="A82" r:id="rId3" location="L33"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
